--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_equip_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_equip_update.xlsx
@@ -856,7 +856,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
